--- a/HouseRenovationStatus.xlsx
+++ b/HouseRenovationStatus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="104">
   <si>
     <t>Sl No</t>
   </si>
@@ -293,6 +293,46 @@
   </si>
   <si>
     <t>Existing T links to be relocated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pooja unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">terrace electical points </t>
+  </si>
+  <si>
+    <t>Material Selection</t>
+  </si>
+  <si>
+    <t>Wash basin , kitchen sink, electrical switch, lights etc</t>
+  </si>
+  <si>
+    <t>Tiles, Sanitory selected</t>
+  </si>
+  <si>
+    <t>Unit in line with existing first floor to be done</t>
+  </si>
+  <si>
+    <t>Design to be updated</t>
+  </si>
+  <si>
+    <t>wodden beading with opaque glass</t>
+  </si>
+  <si>
+    <t>window  design of balcony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoe rack  </t>
+  </si>
+  <si>
+    <t>bench required</t>
+  </si>
+  <si>
+    <t>As shown in design</t>
+  </si>
+  <si>
+    <t>Wash basin , kitchen sink, electrical switch catalog required.
+Laminate required , commode for gnd 2nd roof top</t>
   </si>
 </sst>
 </file>
@@ -638,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:I33"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -650,7 +690,7 @@
     <col min="2" max="2" width="68.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
@@ -1573,6 +1613,154 @@
       <c r="I33" s="1" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>

--- a/HouseRenovationStatus.xlsx
+++ b/HouseRenovationStatus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="120" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="90" yWindow="120" windowWidth="20730" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="WorkTracker" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WorkTracker!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="109">
   <si>
     <t>Sl No</t>
   </si>
@@ -331,8 +331,26 @@
     <t>As shown in design</t>
   </si>
   <si>
-    <t>Wash basin , kitchen sink, electrical switch catalog required.
-Laminate required , commode for gnd 2nd roof top</t>
+    <t>Name board for the house</t>
+  </si>
+  <si>
+    <t>To be sourced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wash basin , kitchen sink, electrical switch catalog required.
+Laminate required , commode for gnd 2nd roof top
+Shaving mirror to be selected
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile charging sockets </t>
+  </si>
+  <si>
+    <t>to be increased to 6 in kids bed room,
+Additional 3 required in Roof terrace</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -678,25 +696,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -780,7 +798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -809,7 +827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -864,7 +882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -890,7 +908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -919,7 +937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -948,7 +966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1090,7 +1108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1275,7 +1293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1304,7 +1322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1359,7 +1377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1414,7 +1432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1498,7 +1516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8">
+    <row r="30" spans="1:9" ht="30">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1614,7 +1632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8">
+    <row r="34" spans="1:9" ht="75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1628,7 +1646,7 @@
         <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1643,7 +1661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -1701,7 +1719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -1760,7 +1778,62 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30">
+      <c r="A40" s="1">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
@@ -1777,9 +1850,9 @@
       <selection activeCell="C13" sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="32" spans="8:8">
@@ -1799,7 +1872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HouseRenovationStatus.xlsx
+++ b/HouseRenovationStatus.xlsx
@@ -283,9 +283,6 @@
     <t>roof top flooring</t>
   </si>
   <si>
-    <t>wpc to be put</t>
-  </si>
-  <si>
     <t>new ms rods insertion in between rods in balcony of 2nd floor and damaged rod to be removed</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>floor mat to be put</t>
   </si>
 </sst>
 </file>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,7 +709,7 @@
     <col min="3" max="3" width="42.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
@@ -1521,7 +1521,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>83</v>
@@ -1582,7 +1582,7 @@
         <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
@@ -1608,10 +1608,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
@@ -1637,16 +1637,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1666,16 +1666,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
@@ -1695,16 +1695,16 @@
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
@@ -1724,16 +1724,16 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
@@ -1753,10 +1753,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>26</v>
@@ -1782,10 +1782,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>43</v>
@@ -1803,7 +1803,7 @@
         <v>40</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30">
@@ -1811,10 +1811,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>43</v>
@@ -1832,7 +1832,7 @@
         <v>50</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/HouseRenovationStatus.xlsx
+++ b/HouseRenovationStatus.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Amruthahalli Residence\AmruthalliHouseData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="120" windowWidth="20730" windowHeight="9510"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WorkTracker!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -356,8 +361,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,12 +379,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,12 +405,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -408,6 +422,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,9 +508,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,6 +543,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,14 +719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.28515625" style="1" customWidth="1"/>
@@ -714,36 +738,36 @@
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -769,7 +793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -798,7 +822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -827,7 +851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -856,7 +880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -882,7 +906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -908,7 +932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -937,7 +961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -966,7 +990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1053,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1082,7 +1106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1108,7 +1132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1134,7 +1158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1160,7 +1184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1186,7 +1210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1212,7 +1236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1238,7 +1262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1267,7 +1291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1293,7 +1317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1322,7 +1346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1351,7 +1375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1406,7 +1430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1432,7 +1456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1461,7 +1485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1490,7 +1514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1516,7 +1540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1603,7 +1627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1632,7 +1656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="75">
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1661,7 +1685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1690,7 +1714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -1719,7 +1743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -1748,7 +1772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -1777,7 +1801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -1806,7 +1830,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -1843,19 +1867,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="32" spans="8:8">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32">
         <f>(H29*0.08)/12</f>
         <v>0</v>
@@ -1867,12 +1891,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HouseRenovationStatus.xlsx
+++ b/HouseRenovationStatus.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WorkTracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Appliances " sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="176">
   <si>
     <t>Sl No</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>reuse existing window</t>
-  </si>
-  <si>
-    <t>To be excluded</t>
   </si>
   <si>
     <t>Ground floor storage room door fitment</t>
@@ -350,6 +347,9 @@
     <t>False Ceiling and Core Cuting Pending</t>
   </si>
   <si>
+    <t>Hidden door in MBR</t>
+  </si>
+  <si>
     <t xml:space="preserve">To be updated in drawing and Render </t>
   </si>
   <si>
@@ -386,7 +386,22 @@
     <t>Design is Updated. Implementation pending</t>
   </si>
   <si>
-    <t>Hidden drawer in MBR</t>
+    <t>Simple tiles To be Sourced and laid for 3 washrooms</t>
+  </si>
+  <si>
+    <t>GF and  FF Washroom Tiles</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>Design updated</t>
+  </si>
+  <si>
+    <t>YEs</t>
   </si>
   <si>
     <t>Sun Protection sheets near washing machine</t>
@@ -411,6 +426,134 @@
   </si>
   <si>
     <t>existing drain blocked by metal roof</t>
+  </si>
+  <si>
+    <t>Stopping chain for grill door</t>
+  </si>
+  <si>
+    <t>without stopper it hits threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas cylinder cabin </t>
+  </si>
+  <si>
+    <t>to right side of dishwasher</t>
+  </si>
+  <si>
+    <t>Threshold near bathrooms</t>
+  </si>
+  <si>
+    <t>to stop water flowing ot</t>
+  </si>
+  <si>
+    <t>remodelling of temporary roof on top</t>
+  </si>
+  <si>
+    <t>removal of temp roof , inserting new points</t>
+  </si>
+  <si>
+    <t>shutter for dishwasher</t>
+  </si>
+  <si>
+    <t>teporary arrangement</t>
+  </si>
+  <si>
+    <t>grills for roof top reeinforcing</t>
+  </si>
+  <si>
+    <t>perforated sheet existing can be reused,
+existing metal can be resued in handle reenforcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grills near security door </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+existing metal can be resued in grill reenforcement</t>
+  </si>
+  <si>
+    <t>latch for the swing</t>
+  </si>
+  <si>
+    <t>to be provided in hall</t>
+  </si>
+  <si>
+    <t>Appliance</t>
+  </si>
+  <si>
+    <t>Dimesions</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Design Impact</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Chimmney</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>Water Purifier</t>
+  </si>
+  <si>
+    <t>FaberHOOD ORIENT Xpress IND HC SC EBK 60</t>
+  </si>
+  <si>
+    <t>kent prime plus zww</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Dishwasher</t>
+  </si>
+  <si>
+    <t>T Shape for washing machine exit</t>
+  </si>
+  <si>
+    <t>T shape in water drain for exit water of washing machine</t>
+  </si>
+  <si>
+    <t>Electrical connection for washing machine</t>
+  </si>
+  <si>
+    <t>new point for washing machine to be made</t>
+  </si>
+  <si>
+    <t>dishwasher height</t>
+  </si>
+  <si>
+    <t>Final height to be discussed before finalizing</t>
+  </si>
+  <si>
+    <t>LG 14 Place Settings Wi - Fi Dishwasher (DFB424FP, Silver, Silent Operation, Tough Stain Removal, Adjustable racks )</t>
+  </si>
+  <si>
+    <t>23D x 27.7W x 58.1H Centimeters</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>Amazon Brand - Solimo Petra Solid Sheesham Wood King Bed (Teak Finish)</t>
+  </si>
+  <si>
+    <t>2.03L x 1.91W x 0.89H Meters</t>
   </si>
 </sst>
 </file>
@@ -492,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,12 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -866,33 +1003,33 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -958,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -973,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>53</v>
@@ -984,14 +1121,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -1000,7 +1137,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>53</v>
@@ -1027,7 +1164,7 @@
         <v>51</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>53</v>
@@ -1056,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>53</v>
@@ -1085,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>53</v>
@@ -1114,7 +1251,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>53</v>
@@ -1228,7 +1365,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>53</v>
@@ -1257,7 +1394,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>53</v>
@@ -1295,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
@@ -1318,29 +1455,29 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1371,32 +1508,32 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A20" s="3">
+    <row r="20" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1405,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -1432,13 +1569,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1461,13 +1598,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1490,7 +1627,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -1517,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -1546,7 +1683,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
@@ -1573,10 +1710,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
@@ -1602,10 +1739,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>23</v>
@@ -1631,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
@@ -1644,10 +1781,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>52</v>
@@ -1658,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
@@ -1687,10 +1824,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -1716,10 +1853,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
@@ -1745,10 +1882,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
@@ -1774,16 +1911,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>15</v>
@@ -1801,16 +1938,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>17</v>
@@ -1826,32 +1963,32 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>37</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>50</v>
+      <c r="I36" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30">
@@ -1859,10 +1996,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -1884,31 +2021,31 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1917,10 +2054,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>39</v>
@@ -1938,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30">
@@ -1946,10 +2083,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>39</v>
@@ -1967,127 +2104,472 @@
         <v>46</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="33" customHeight="1">
+      <c r="A41" s="4">
         <v>42</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="H41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="6">
+      <c r="H42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3">
         <v>43</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="B43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="6">
+      <c r="H43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="3">
         <v>44</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="6">
+      <c r="H44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3">
         <v>45</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="B45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="5"/>
+      <c r="H45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="3">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="3">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="3">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="3">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45">
+      <c r="A51" s="3">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45">
+      <c r="A52" s="3">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="5">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
@@ -2098,17 +2580,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2">
+        <v>11500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>16000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5">
+        <v>25000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="32" spans="8:8">
       <c r="H32">
         <f>(H29*0.08)/12</f>

--- a/HouseRenovationStatus.xlsx
+++ b/HouseRenovationStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1185"/>
   </bookViews>
   <sheets>
     <sheet name="WorkTracker" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="189">
   <si>
     <t>Sl No</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t xml:space="preserve">shoe rack  </t>
-  </si>
-  <si>
-    <t>bench required</t>
   </si>
   <si>
     <t>As shown in design</t>
@@ -554,6 +551,48 @@
   </si>
   <si>
     <t>2.03L x 1.91W x 0.89H Meters</t>
+  </si>
+  <si>
+    <t>water heater</t>
+  </si>
+  <si>
+    <t>Gas stove</t>
+  </si>
+  <si>
+    <t>Chain to be put near security door</t>
+  </si>
+  <si>
+    <t>chain to be put to avoid colloision</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>bench required with UPS inclsion</t>
+  </si>
+  <si>
+    <t>Kids room wardrobe</t>
+  </si>
+  <si>
+    <t>cot size is 79 inch, pls make it 81 inch</t>
+  </si>
+  <si>
+    <t>kids room sliding mirror is required</t>
+  </si>
+  <si>
+    <t>Master bed room cot</t>
+  </si>
+  <si>
+    <t>75 inch W* 78 InchL</t>
+  </si>
+  <si>
+    <t>75 inch W* 78 InchL to be worked out</t>
+  </si>
+  <si>
+    <t>Leakage-exterior to left of house to be addressed</t>
+  </si>
+  <si>
+    <t>water pit near entrace to be closed</t>
   </si>
 </sst>
 </file>
@@ -597,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -620,22 +659,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -649,9 +677,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>53</v>
@@ -1095,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -1110,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>53</v>
@@ -1121,14 +1153,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -1137,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>53</v>
@@ -1155,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -1164,7 +1196,7 @@
         <v>51</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>53</v>
@@ -1178,13 +1210,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>28</v>
@@ -1193,7 +1225,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>53</v>
@@ -1213,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
@@ -1222,7 +1254,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>53</v>
@@ -1242,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>28</v>
@@ -1251,7 +1283,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>53</v>
@@ -1271,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>28</v>
@@ -1300,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>17</v>
@@ -1356,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>28</v>
@@ -1365,7 +1397,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>53</v>
@@ -1379,13 +1411,13 @@
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>28</v>
@@ -1394,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>53</v>
@@ -1432,7 +1464,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
@@ -1522,7 +1554,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>15</v>
@@ -1531,7 +1563,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>52</v>
@@ -1784,7 +1816,7 @@
         <v>76</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>52</v>
@@ -1856,7 +1888,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
@@ -1917,10 +1949,10 @@
         <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>15</v>
@@ -1976,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>17</v>
@@ -1988,7 +2020,7 @@
         <v>47</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30">
@@ -1999,13 +2031,13 @@
         <v>92</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>17</v>
@@ -2028,13 +2060,13 @@
         <v>85</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>8</v>
@@ -2054,10 +2086,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>39</v>
@@ -2075,7 +2107,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30">
@@ -2083,10 +2115,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>39</v>
@@ -2104,7 +2136,7 @@
         <v>46</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33" customHeight="1">
@@ -2112,22 +2144,22 @@
         <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>47</v>
@@ -2141,10 +2173,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>39</v>
@@ -2162,7 +2194,7 @@
         <v>46</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2170,10 +2202,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>39</v>
@@ -2191,7 +2223,7 @@
         <v>46</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2199,10 +2231,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>39</v>
@@ -2220,7 +2252,7 @@
         <v>46</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2228,10 +2260,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>39</v>
@@ -2249,7 +2281,7 @@
         <v>46</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2257,10 +2289,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>39</v>
@@ -2278,7 +2310,7 @@
         <v>46</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2286,10 +2318,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>39</v>
@@ -2307,7 +2339,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2315,10 +2347,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>39</v>
@@ -2336,7 +2368,7 @@
         <v>46</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2344,10 +2376,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>39</v>
@@ -2365,7 +2397,7 @@
         <v>46</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2373,10 +2405,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>39</v>
@@ -2394,7 +2426,7 @@
         <v>46</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45">
@@ -2402,10 +2434,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>39</v>
@@ -2423,7 +2455,7 @@
         <v>46</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45">
@@ -2431,10 +2463,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>39</v>
@@ -2452,7 +2484,7 @@
         <v>46</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2460,10 +2492,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>39</v>
@@ -2481,18 +2513,18 @@
         <v>46</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30">
       <c r="A54" s="5">
         <v>54</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>39</v>
@@ -2510,18 +2542,18 @@
         <v>46</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="5">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>39</v>
@@ -2539,18 +2571,18 @@
         <v>46</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>39</v>
@@ -2568,7 +2600,175 @@
         <v>46</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5">
+        <v>57</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5">
+        <v>58</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="5">
+        <v>59</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="5">
+        <v>60</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="5">
+        <v>61</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5">
+        <v>62</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2582,13 +2782,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -2600,25 +2800,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
         <v>154</v>
-      </c>
-      <c r="H1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2626,19 +2826,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2">
         <v>11500</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2646,39 +2846,39 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>16000</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
         <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
       </c>
       <c r="E4">
         <v>50000</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2686,19 +2886,54 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
         <v>174</v>
-      </c>
-      <c r="D5" t="s">
-        <v>175</v>
       </c>
       <c r="E5">
         <v>25000</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="8:8">
